--- a/DbLayouts/L5-管理性作業/NegMain.xlsx
+++ b/DbLayouts/L5-管理性作業/NegMain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C8585D-83B5-4449-A0C1-03FDDEE010B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AD7F8A-5666-4797-BA82-2F627EACA74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,10 +577,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CourCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>受理調解機構代號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -666,6 +662,10 @@
   </si>
   <si>
     <t>繳款時更新,結清時等於累繳金額,其他等於期款乘以(首次應繳日至會計日之月差)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourtCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1782,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1793,7 +1793,7 @@
         <v>74</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>37</v>
@@ -1805,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="32.4">
@@ -1828,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1958,7 +1958,7 @@
         <v>95</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>37</v>
@@ -1967,7 +1967,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1978,7 +1978,7 @@
         <v>96</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>37</v>
@@ -1987,7 +1987,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2012,19 +2012,19 @@
         <v>31</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>137</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>138</v>
       </c>
       <c r="E39" s="25">
         <v>3</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2257,7 +2257,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>62</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>58</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>68</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>60</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>61</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>63</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>67</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>71</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>79</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>80</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>127</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>127</v>

--- a/DbLayouts/L5-管理性作業/NegMain.xlsx
+++ b/DbLayouts/L5-管理性作業/NegMain.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AD7F8A-5666-4797-BA82-2F627EACA74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C76D75F-8EB7-4BD4-A5B7-FE07220D3685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="161">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -667,6 +667,14 @@
   <si>
     <t>CourtCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo= , AND CaseKindCode= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>forLetter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1272,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2229,11 +2237,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2387,6 +2395,17 @@
         <v>128</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
